--- a/ponte.xlsx
+++ b/ponte.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfom\Desktop\insper\5 semestre\polyBridge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB045DA-CC50-4C55-A026-D9B7EC82D53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="130" windowWidth="21060" windowHeight="10840" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,18 @@
     <sheet name="Carregamento" sheetId="3" r:id="rId3"/>
     <sheet name="Restricao" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,6 +179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -209,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +262,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,19 +506,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -476,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -486,32 +541,197 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.4</v>
+      <c r="B3" s="1">
+        <v>0.1033</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7.9974000000000003E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>A8*2</f>
+        <v>0.15994800000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <f>0.1033*2</f>
+        <v>0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>A8</f>
+        <v>7.9974000000000003E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B9</f>
+        <v>0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11*2</f>
+        <v>0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B11*2</f>
+        <v>0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B11/2</f>
+        <v>5.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B14</f>
+        <v>5.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15</f>
+        <v>5.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.15495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.15495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.25824999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.25824999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.15495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.15495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.25824999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -519,19 +739,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="11.6328125" customWidth="1"/>
+    <col min="1" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -549,12 +770,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>210000000000</v>
@@ -562,40 +783,610 @@
       <c r="D2" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>210000000000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="C39" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B40" s="1">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>210000000000</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C45" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="D45" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -606,19 +1397,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.6328125" customWidth="1"/>
+    <col min="1" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -633,15 +1424,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>150</v>
+        <v>-75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
@@ -649,153 +1440,153 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -808,19 +1599,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -832,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -842,12 +1633,12 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -855,123 +1646,161 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>

--- a/ponte.xlsx
+++ b/ponte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfom\Desktop\insper\5 semestre\polyBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB045DA-CC50-4C55-A026-D9B7EC82D53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B5A25-38F0-47D6-A203-25B64EAF9207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Restricao" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -510,7 +509,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
@@ -796,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D5" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,10 +837,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,10 +851,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,10 +865,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D8" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,10 +879,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -894,10 +893,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D10" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -908,10 +907,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D11" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -922,10 +921,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D12" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -936,10 +935,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D13" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -950,10 +949,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D14" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,10 +963,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D15" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -978,10 +977,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D16" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,10 +991,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D17" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,10 +1005,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D18" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,10 +1019,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D19" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,10 +1033,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D20" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,10 +1047,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D21" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,10 +1061,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D22" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,10 +1075,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D23" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,10 +1089,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D24" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,10 +1103,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D25" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,10 +1117,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D26" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,10 +1131,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D27" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,10 +1145,10 @@
         <v>21</v>
       </c>
       <c r="C28" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D28" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D29" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,10 +1173,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D30" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D31" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,10 +1201,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D32" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,10 +1215,10 @@
         <v>14</v>
       </c>
       <c r="C33" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D33" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,10 +1229,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D34" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D35" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,10 +1257,10 @@
         <v>23</v>
       </c>
       <c r="C36" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D36" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,10 +1271,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D37" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="C38" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D38" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D39" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,10 +1313,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D40" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,10 +1327,10 @@
         <v>9</v>
       </c>
       <c r="C41" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D41" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D42" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,10 +1355,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D43" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,10 +1369,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D44" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="3">
-        <v>210000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D45" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
     </row>
   </sheetData>

--- a/ponte.xlsx
+++ b/ponte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfom\Desktop\insper\5 semestre\polyBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B5A25-38F0-47D6-A203-25B64EAF9207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0E2F4-60AB-47B5-B218-A4FA1C92CBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,12 +1207,12 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3">
         <v>4000000000</v>
@@ -1221,12 +1221,12 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3">
         <v>4000000000</v>
@@ -1235,12 +1235,12 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>4000000000</v>
@@ -1248,13 +1248,15 @@
       <c r="D35" s="3">
         <v>1.1E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
         <v>4000000000</v>
@@ -1262,13 +1264,15 @@
       <c r="D36" s="3">
         <v>1.1E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3">
         <v>4000000000</v>
@@ -1276,13 +1280,15 @@
       <c r="D37" s="3">
         <v>1.1E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3">
         <v>4000000000</v>
@@ -1290,13 +1296,15 @@
       <c r="D38" s="3">
         <v>1.1E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3">
         <v>4000000000</v>
@@ -1305,12 +1313,12 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C40" s="3">
         <v>4000000000</v>
@@ -1319,73 +1327,17 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3">
         <v>4000000000</v>
       </c>
       <c r="D41" s="3">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>16</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1.1E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4000000000</v>
-      </c>
-      <c r="D45" s="3">
         <v>1.1E-4</v>
       </c>
     </row>
@@ -1399,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,6 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
+        <f>C2</f>
         <v>-75</v>
       </c>
       <c r="D3" s="2"/>
@@ -1602,7 +1555,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,12 +1585,12 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1647,7 +1600,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1667,7 +1620,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
@@ -1677,7 +1630,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
@@ -1687,7 +1640,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1697,7 +1650,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1707,7 +1660,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1719,7 +1672,7 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
@@ -1727,7 +1680,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
@@ -1736,17 +1689,12 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
